--- a/backend/PromoskopExcelParser/excel/LIST_1.xlsx
+++ b/backend/PromoskopExcelParser/excel/LIST_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="429">
   <si>
     <t>YUMURTA DOĞAL 53-62 GR 9'LU EGGY</t>
   </si>
@@ -730,6 +730,579 @@
   </si>
   <si>
     <t>SOĞUK KAHVE 250ML XPRES NESCAFE</t>
+  </si>
+  <si>
+    <t>http://www.psdgraphics.com/wp-content/uploads/2011/02/egg-icon.jpg</t>
+  </si>
+  <si>
+    <t>http://online.sariyermarket.com/content/images/thumbs/0032119_keskinoglu-kasap-kofte-260gr-_300.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.tadalgurme.com/UrunResim/sahin_kangal_sucuk_250_gr.JPG</t>
+  </si>
+  <si>
+    <t>https://www.idealsanalmarket.com/oku.php%3Fid%3D25313</t>
+  </si>
+  <si>
+    <t>http://www.muratgida.com.tr/uploads/urunler/6662607-keskinoglu.jpg</t>
+  </si>
+  <si>
+    <t>http://devrekindirim.files.wordpress.com/2013/12/keskinoc49flu-kokteyl-sosis-1000-gr.png%3Fw%3D200%26h%3D200%26crop%3D1</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/13503501_large.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/13503525_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/keskinoglu_pilic_bufe_sucuk_450_gr_Eya2gU.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/20000300_large.jpg</t>
+  </si>
+  <si>
+    <t>http://blog.ugurtabur.com/wp-content/uploads/2014/06/13_12_2008_17_7_3_bildircin_yumurtasi.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tumumeshur.com/urun-imaj/sahin-acik-dogal-kangal-sucuk.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pinar.com.tr/images/urunler/et-sarkuteri/acbitir-75.png</t>
+  </si>
+  <si>
+    <t>http://www.keskinoglu.com.tr/vImages/feimg/urun_big_img/Pilic-yaprak_Doner_b.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kampanyatakip.com/wp-content/uploads/2013/11/adf33beb-e3c0-4b26-bab9-49776cbbf096.jpg</t>
+  </si>
+  <si>
+    <t>http://www.alisverisrehberi.com/haber/upload/orta/27772_migros_62_275.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-eOWJmgb9mkM/UPhRfS4VB_I/AAAAAAABCgs/VCUudqPLCFg/s1600/media_markt.jpg</t>
+  </si>
+  <si>
+    <t>http://ikbalgida.com/wp-content/uploads/2013/12/ikbal-kasap-sucuk-tekli.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adepo.com/urun-resimleri/597195/220/597195.jpg%3Fr%3D1412921485-846510851</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a1015kasim7.gif</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-L29wcO3ehUs/UouOCkvdRoI/AAAAAAABaco/5TVjtqyDZGk/s1600/motorola-moto-G.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pinar.com.tr/images/header/pinar-organik-beyaz-peynir.png</t>
+  </si>
+  <si>
+    <t>http://www.tadalgurme.com/UrunResim/FB,3273,21,pinar-ac-bitir-macar-salam-60-gr-salam.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pinar.com.tr/images/urunler/et-sarkuteri/pinar-ac-bitir-sucuk.png</t>
+  </si>
+  <si>
+    <t>http://pinar2013.luckyeye.com/images/urunler/et-sarkuteri/pinar-acbitir-sosis.png</t>
+  </si>
+  <si>
+    <t>http://www.atakentmarket.com/images/page_prod1.png</t>
+  </si>
+  <si>
+    <t>http://ikbalgida.com/wp-content/uploads/2013/12/ikbal-parmak-isil-islem-gormus-sucuk.jpg</t>
+  </si>
+  <si>
+    <t>http://www.keskinoglu.com.tr/vImages/feimg/urun_big_img/Pilic-Kebap_b.jpg</t>
+  </si>
+  <si>
+    <t>http://mutfakhaber.net/site/resimler/4/cokun%2520et%2520kavurma%2520grseli.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_5KAkhYOaLKY/SwfIK_628II/AAAAAAAABLQ/p8f70SPCf2g/s320/Kivili%2BKup.JPG</t>
+  </si>
+  <si>
+    <t>http://www.keskinoglu.com.tr/vImages/feimg/menu_sml_img/KeskinogluRamazanPilicSalam.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-tVbZWcPDW4A/UoYB_iIfUEI/AAAAAAAAAVs/x6HpZeXircA/s1600/IMG_20131106_175925.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bakkalim.uk/image/cache/data/products/falim-mastic-aromated-sugar-free-chewing-gum-100pcs-snacks-chocolate-candy-etc-7622210008053-1691-600x600_0.png</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a101temmuz.gif</t>
+  </si>
+  <si>
+    <t>http://www.muratgida.com.tr/uploads/urunler/7279976-pinar-devam-sutu-ilkadim-200-ml.png</t>
+  </si>
+  <si>
+    <t>http://store.donanimhaber.com/f6/7a/c3/F67AC31CDE24AAC77C3007E1E498099E.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/tahsildaroglu-klasik-peynir-bc98e1.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/11561533_large.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-hcw1B38TZfw/UdFgIw9SuKI/AAAAAAAAD3s/E0qeJ66udZo/s1500/a101-2.jpg</t>
+  </si>
+  <si>
+    <t>http://kalorisepeti.com/images/icon/y2.png</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a101ekimayindaindirimler.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/11550900_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,21237,84,pinar-sut-tam-yagli-1-litre-12-li-koli.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketkapinizda.com/wp-content/uploads/2014/04/kinder-s%25C3%25BCt-dilimi.png</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a10122temmu2.gif</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/11561860_large.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/11550470_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.maxikarizma.com/image/cache/data/urunler/03-sut-sarkuteri/04-yogurt/pinar/pinar-dogal-yogurt-750-gr/pinar-dogal-yogurt-750-gr-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pinar.com.tr/images/header/sut_aromali.png</t>
+  </si>
+  <si>
+    <t>http://www.marketimyilmazlar.com/image/cache/data/MUTFAK/10013720_large-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kiyasmatik.com/assets/i/p/big/32590.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adepo.com/urun-resimleri/488670/104/46498.jpg</t>
+  </si>
+  <si>
+    <t>http://bornova.ucuzmar.com/image/cache/data/sutas/kaymakli-kase-750gr-2000x2000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketimyilmazlar.com/image/cache/data/INDIRIM/SutasMeyveliYogurtOrmanMeyveleri-2930-2Adet-500x500-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/11010004_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/ekc_hellm_peynr_250_gr_57839.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.myekran.net/galeri/indirim/a101_firsat_urunleri_15_03_2012_2.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/s%25C3%25BCta%25C5%259F-light-beyaz-peynir-700g-eb094f.jpg</t>
+  </si>
+  <si>
+    <t>http://megamarket.com.tr/MegaMarketResimler/UrunResim/S%25C3%259CTA%25C5%259E%2520YAYIK%2520TEREYA%25C4%259E%2520%2520500%2520GR..png</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-nC38QhTS5rk/UCS1vIfvo7I/AAAAAAAABYs/BNHWzZ9QWk8/s1600/IMG_3988.JPG</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-7R1ERE70LFk/T4bzKDoDl1I/AAAAAAAAAcU/2K1i7Co78EQ/s1600/S%25CC%25A7am%2BTatl%25C4%25B1s%25C4%25B1.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_PF5I7UHavM8/TNhAPoL4mII/AAAAAAAACF8/RpLgvlsbxFg/s1600/Perfect%2BFoto4369.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-SysRgNbmKfs/T-soTT9BEWI/AAAAAAAAA-A/yTD8tepQXhc/s1600/C%25CC%25A7ikolatal%25C4%25B1%2BSupangle.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-9OFD14UQIWI/Utg4HoZLy8I/AAAAAAAAEoQ/Re_aHEsqZ18/s1600/mifl%25C3%25B6y%2Btatl%25C4%25B1.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_nSQdgX7T64E/TQFEr-xVyDI/AAAAAAAAA6c/IDfq5oVba_Q/s1600/DSC03029.JPG</t>
+  </si>
+  <si>
+    <t>http://www.muratbey.com.tr/Images/Product/lor500_.png</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/11561964_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/harcaa101.gif</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/10017203_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/kucuk/bafira_biber_salca_tatli_1900_gr_gO679t.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/yorsan_hosmerm_150_gr_64538.jpeg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_1fbgiNI4rgA/TK7ZkLpeXbI/AAAAAAAADSk/IOXGsOHuhLE/s1600/P1060445.JPG</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/10017222_large.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/1858-3008-thickbox/pinar-sut-tam-yali-200-ml.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketimyilmazlar.com/image/cache/data/MUTFAK/peynir/Ekici_Lokum_Kivaminda_Beyaz_Peynir_025kg_b-500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://fbcdn-sphotos-d-a.akamaihd.net/hphotos-ak-xpf1/v/t1.0-9/1424397_525993860830782_195343600_n.png%3Foh%3D65af5d04ae8e07048a03c60f473f37ba%26oe%3D54F6DD30%26__gda__%3D1420736377_93a1eae7ff603bc718946468ef6ff459</t>
+  </si>
+  <si>
+    <t>http://www.turkmenhost.com/documents/Avshar/index_files/image001.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/1857-3009-thickbox/pinar-sut-tam-yali-500-ml.jpg</t>
+  </si>
+  <si>
+    <t>http://megamarket.com.tr/MegaMarketResimler/UrunResim/KEB%25C4%25B0R%2520K%25C3%2596Y%2520T%25C4%25B0P%25C4%25B0%2520YO%25C4%259EURT%25201%2520KG.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/ped/cebeltulumpeynirbez1kg-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://cahidejibek.files.wordpress.com/2012/04/kola-bocegi-karaborsada_64271_b.jpg%3Fw%3D780</t>
+  </si>
+  <si>
+    <t>http://ekapicin.com/media/catalog/product/cache/1/image/444x666/68b887c4aa6f15bc7f124428045fa72e/t/i/tikvesli_krema_200_ml.png</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a101indirimeylul.jpg</t>
+  </si>
+  <si>
+    <t>http://www.butikkahvalti.com/image/cache/data/drk055MuratbeyS%25C3%25BCrmeliBeyaz-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.butikkahvalti.com/image/cache/data/drk045muratka%25C5%259Far-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pinar.com.tr/images/2014/labne-180gr.png</t>
+  </si>
+  <si>
+    <t>http://cdn.slidesharecdn.com/ss_thumbnails/bruselloz-1202372979885176-2-thumbnail-4.jpg%3Fcb%3D1202365781</t>
+  </si>
+  <si>
+    <t>http://www.foodnfeast.com/images/products/00/04/75/475_buyuk.jpg</t>
+  </si>
+  <si>
+    <t>http://img6.mynet.com/ha7/fin/ciftlik21.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ustunsupermarket.com/image/cache/data/orman%2520meyeli-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-Bhp_ljCHKGs/UxjF0Pv57OI/AAAAAAAAAB8/CZDxcQsqCts/s1600/ahududulu%2Bpasta.jpg</t>
+  </si>
+  <si>
+    <t>http://www.milanogourmet.com.tr/imgphp/urun/t-1273-moova-tam-yagli-sut-1000-ml-img1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.hurriyet.com.tr/_newsimages/3147729.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-_i3eNW_W-Nc/TmW3vuFWYYI/AAAAAAAAH18/y90mU8xLDZs/s1600/kbast%2525C4%2525B1.jpg</t>
+  </si>
+  <si>
+    <t>https://dantellerdunyasi.files.wordpress.com/2010/05/701256230ip2.jpg</t>
+  </si>
+  <si>
+    <t>http://www.yeniklasor.com/skins/yeniklasor/img/yk-logo.gif</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/sutas_sut_gunluk_500_ml_56524.jpeg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/27501003_large.jpg</t>
+  </si>
+  <si>
+    <t>http://eng.pinar.com.tr/images/urunler/yogurtlar/pinar-yeni-2000g.png</t>
+  </si>
+  <si>
+    <t>http://www.etietieti.com/Images/Urun/AcikUrunGorseli/urun20131121145958047e3682b.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kuryeavm.com/yonetim/dosyalar/urunresimler/buyuk/sutas_2250_gr_yogurt_7746.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketkapinizda.com/wp-content/uploads/2014/04/tam-yagli-beyaz-peynir-500gr.png</t>
+  </si>
+  <si>
+    <t>https://www.ekicipeynir.com/EkiciAdminPanel/Upload/50228881.png</t>
+  </si>
+  <si>
+    <t>http://www.torku.com.tr/getPhoto.ashx%3Fpath%3D~/user_files/product/086aab88-a12d-42c1-887f-efbb9e5a87cd.png%26w%3D334%26h%3D289</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/12504430_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.vakifmarket.com/FB,488,46,yorsan-beyaz-peynir-500-gr-light-sarkuteri-grubu-yorsan.jpg</t>
+  </si>
+  <si>
+    <t>http://www.office1.com.tr/FO,7193,19,mesrubat-coca-cola-zero-pet-1-lt-gazli-icecekler-coca-cola.jpg</t>
+  </si>
+  <si>
+    <t>http://www.assengida.com.tr/upload/editor/data/coca_cola_25lt_50665.jpeg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/pepsi-cola-2_5l-a2025c.jpg</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/60712/coca-cola-zero-kutu-330-ml-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/08022710_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mercankurumsal.com/FB,297,24,yedigun-portakal-25-lt-6-ad-gazli-icecekler-pepsi.png</t>
+  </si>
+  <si>
+    <t>http://www.mercankurumsal.com/FO,272,22,fruko-gazoz-kutu-330-ml-24-ad-gazli-icecekler-pepsi.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,21075,93,lipton-ice-tea-limonlu-soguk-cay-330-ml-24-lu-koli-mesrubatlar-lipton.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,21076,70,lipton-ice-tea-seftali-aromali-soguk-cay-330-ml-24-lu-koli.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ustunsupermarket.com/image/cache/data/do%25C4%259Fu%25C5%259F%2520siyah-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.navtoptan.com/media/catalog/product/cache/1/image/9df78eab33525d08d6e5fb8d27136e95/c/a/caykur_filiz_cayi_500g.jpg</t>
+  </si>
+  <si>
+    <t>http://www.efetemizlik.com/206-271-thickbox/dou-karadeniz-mavi-harman-cay-1000gr.jpg</t>
+  </si>
+  <si>
+    <t>http://www.assengida.com.tr/upload/editor/data/506.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/03111303_large.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/18687-302-thickbox/caykur-tiryaki-cay-1000-gr.jpg</t>
+  </si>
+  <si>
+    <t>http://www.siberbakkal.com/imagess/ori_08d6c103-4bc8-441a-b191-9df8a1e6ede6.jpg</t>
+  </si>
+  <si>
+    <t>http://www.navtoptan.com/media/catalog/product/cache/1/image/9df78eab33525d08d6e5fb8d27136e95/m/e/mehmet_efendi_1.jpg</t>
+  </si>
+  <si>
+    <t>http://online.sariyermarket.com/content/images/thumbs/0034248_doganay-1lt-salgam-suyu-cam-acili.jpeg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/300/Taris_2500961.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_2500799.jpg</t>
+  </si>
+  <si>
+    <t>http://www.muratgida.com.tr/uploads/urunler/7637996-data-redbull_250-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/08022690_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.starling-emarket.com/FB,6114,24,nestle-pure-life-su-5-lt-su.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pinarsu.com.tr/images/urunlerimiz/pinar-pet-su-1500ml-b.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bidoluofis.com/upload/editor/data/erikli_su_0,5.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_5_haziran_2009.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mercankurumsal.com/FB,289,23,yedigun-portakal-sise-250-ml-24-ad-gazli-icecekler-pepsi.jpg</t>
+  </si>
+  <si>
+    <t>http://i01.i.aliimg.com/photo/v1/153329487/MIRINDA_ORANGE_CAN_330ML_CARBONATED_DRINKS_CANNED.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/fruko-gazoz-1_5l-e1f833.jpg</t>
+  </si>
+  <si>
+    <t>http://www.e-sirket.com/resimler/246000/246520.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/yedigun-portakal-2_5l-42d0d2.jpg</t>
+  </si>
+  <si>
+    <t>http://image.bilio.com/data/products/155469149/f-cafe-crown-3-1-arada-kahve-sade-40-l.jpg</t>
+  </si>
+  <si>
+    <t>http://www.xn--toptancm-zkb.com/image/cache/data/cay/ulker/ulker-1971-07-cafe-crown-3-1-action-18-gr-24-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://store.donanimhaber.com/d4/88/ba/D488BA6F0141B734F3B9D02784A65EDA.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/yedigun-mandalina-1_5l-01c0d5.jpg</t>
+  </si>
+  <si>
+    <t>http://www.moderntedarik.com/image/urun/2014/08/25/Resim_1408953026.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/08060171_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,5953,69,dogus-rize-cay-1000-gr.jpg</t>
+  </si>
+  <si>
+    <t>http://www.atakentmarket.com/admin/PICS/products/big_crop_seftali_1lt.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,9125,15,caykur-tomurcuk-cayi-125gr.jpg</t>
+  </si>
+  <si>
+    <t>http://www.modernaktar.net/FB,67,73,form-bitki-cayi-caylar-prof-saracoglu.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_2090772.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_1102759.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kadinnagme.com/wp-content/uploads/2014/04/nescafe_gold-300x168-215x168.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/03411314_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cekilisvekampanya.com/upload/29686948563.jpg</t>
+  </si>
+  <si>
+    <t>http://i01.i.aliimg.com/photo/v0/107340167/Concentrate_Pomegranate_Juice_1_2Lt_.jpg</t>
+  </si>
+  <si>
+    <t>http://www.maxikarizma.com/image/cache/data/urunler/05-icecekler/01-meyva-suyu/cappy/cappy-elma-visne-yuzde-yuz-1-lt/cappy-elma-visne-yuzde-yuz-1-lt-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.maxikarizma.com/image/cache/data/urunler/05-icecekler/01-meyva-suyu/cappy/cappy-karisik-meyve-tanem-1-lt/cappy-karisik-meyve-tanem-1-lt-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.muratgida.com.tr/uploads/urunler/8510761-burn-enerji-icecegi-250-ml-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mercankurumsal.com/FB,287,23,sprite-gazoz-1-lt-12-ad-gazli-icecekler-coca-cola.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketpaketi.com/modules/catalog/products/pr_01_152_max.jpg%3Frev%3D1405409587</t>
+  </si>
+  <si>
+    <t>http://toptanservis.com/image/cache/data/urunler/uludag/uludag_limonata_250ml_cam-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://i01.i.aliimg.com/photo/v3/153256837/FANTA_ORANGE_PET_BOTTLE_1_5L_COCA.jpg</t>
+  </si>
+  <si>
+    <t>http://www.logosofis.com/FB,1546,90,nescafe-gold-hazir-kahve-eko-paket-200gr-kahveler-nescafe.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kampanyavadisi.com/wp-content/uploads/2014/03/nescafe_gold.jpg</t>
+  </si>
+  <si>
+    <t>http://www.temsankurumsal.com/image/cache/data/dogus-siyah-filiz-dokme-cay-1kg-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://akakce.cubecdn.net/lipton/lipton-yellow-label-48%27li-demlik-poset_10-z.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/items/CAPRI_SUN_200_ML_SAFARI_FRUITS_MEYVE_SUYU-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-M-izVFnS3ck/T9nG_NknvsI/AAAAAAAABpc/jnOZ_qhZXwE/s1600/SirmaLimonata.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/681-3077-thickbox/lipton-yellow-label-cay-1000-gr.jpg</t>
+  </si>
+  <si>
+    <t>http://akakce.cubecdn.net/dogus/dogus-karadeniz-keyf-i-dem-1000-gr_2-z.jpg</t>
+  </si>
+  <si>
+    <t>http://www.starling-emarket.com/FB,6609,25,beypazari-maden-suyu-200-ml-maden-sulari.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/936-3054-thickbox/yedigun-mandalina-15lt-pet.jpg</t>
+  </si>
+  <si>
+    <t>http://i01.i.aliimg.com/photo/v0/123789461/FOODIE_X_IR_ENERGY_DRINK.jpg</t>
+  </si>
+  <si>
+    <t>http://www.caykur.gov.tr/Uploads/%5B645546571%5Drizeturist500g.jpg</t>
+  </si>
+  <si>
+    <t>http://www.capscollection.ru/turciya_Turkey/thumb_Yedigun_Tescilli_Marka_Mandalina_Meyveli_Gazoz_DT._97_10_12_SN._04_250_ml.__white.jpg</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/52269/dogadan-bogurtlen-20-li-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/52324/nestle-coffe-mate-krema-eko-500-gr-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/03222626_large.jpg</t>
+  </si>
+  <si>
+    <t>https://image.marketservisi.com/productphotos/373/super-market/icecekler/kahve/birarada-kahveler/100185138123215117.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,1460,23,nescafe-3-u-1-arada-hazir-karisim-kahve-72-li-kutu.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketimyilmazlar.com/image/cache/data/KAHVE/devam/crown%2520(8)-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/03242925_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.logosofis.com/FB,2945,20,nescafe-xpress-cafe-orginal-soguk-kahve-250-ml-24primelu-icecekler.jpg</t>
+  </si>
+  <si>
+    <t>http://blogcuanne.files.wordpress.com/2009/06/milupa_elma_muz_kayisi_suyu_200ml.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-eLsjV4o70zE/URIzblFQZJI/AAAAAAAAEsU/_U2H-vd4ljk/s1600/Marie%2BAntoinette_3.JPG</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-SrmQB8UxUvA/VCAvZxKIq5I/AAAAAAAAER0/Bg08vGDGdsg/s1600/IMG_9390.JPG</t>
+  </si>
+  <si>
+    <t>http://umittedarik.com/image/cache/data/icecekler/COCACOLA-25-LT_1254_medium-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.office1.com.tr/FO,16645,22,mesrubat-fanta-portakal-pet-sise-25-lt-gazli-icecekler-fanta.jpg</t>
+  </si>
+  <si>
+    <t>http://www.gidahatti.com/resim/meyvesuyu.png</t>
+  </si>
+  <si>
+    <t>http://www.ekapinda.com/uploads/urunler/urun_tptncnz49134yeni_urunler.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tgdf.org.tr/turkce/SSS/meyvesuyu.PNG</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/43081-2417-thickbox/cappy-pulpy-portakal-1-lt.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/41522-355-thickbox/erikli-5-lt.jpg</t>
   </si>
 </sst>
 </file>
@@ -773,8 +1346,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,1920 +1651,2609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B238"/>
+    <sheetView tabSelected="1" topLeftCell="C208" workbookViewId="0">
+      <selection activeCell="C235" activeCellId="11" sqref="C12 C45 C50 C78 C82:C83 C86 C117 C128 C175 C186 C192 C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="223.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>11000036</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11000172</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11000190</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11000203</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11000291</v>
       </c>
       <c r="B5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11000311</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11000312</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11000313</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11000314</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11000318</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11000531</v>
       </c>
       <c r="B11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11000574</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11000721</v>
       </c>
       <c r="B13" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11000732</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11000801</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11000822</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11000868</v>
       </c>
       <c r="B17" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11000922</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11000923</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11000929</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11000935</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11000964</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11000965</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11000966</v>
       </c>
       <c r="B24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11000967</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11000968</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11000969</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11000970</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11000977</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11000978</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11000980</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11000981</v>
       </c>
       <c r="B32" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11000992</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11001002</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11001010</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11001013</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11001043</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11001054</v>
       </c>
       <c r="B38" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11001065</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12000001</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12000012</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12000013</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12000031</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12000036</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12000055</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12000056</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12000073</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12000082</v>
       </c>
       <c r="B48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12000281</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12000351</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12000353</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12000357</v>
       </c>
       <c r="B52" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12000416</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12000442</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12000492</v>
       </c>
       <c r="B55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12000495</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12000496</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12000497</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12000511</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12000514</v>
       </c>
       <c r="B60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12000515</v>
       </c>
       <c r="B61" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12000518</v>
       </c>
       <c r="B62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12000526</v>
       </c>
       <c r="B63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12000527</v>
       </c>
       <c r="B64" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12000542</v>
       </c>
       <c r="B65" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12000545</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12000556</v>
       </c>
       <c r="B67" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12000563</v>
       </c>
       <c r="B68" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12000572</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12000573</v>
       </c>
       <c r="B70" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12000574</v>
       </c>
       <c r="B71" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12000575</v>
       </c>
       <c r="B72" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12000577</v>
       </c>
       <c r="B73" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12000578</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12000602</v>
       </c>
       <c r="B75" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12000614</v>
       </c>
       <c r="B76" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>12000643</v>
       </c>
       <c r="B77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12000671</v>
       </c>
       <c r="B78" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12000711</v>
       </c>
       <c r="B79" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12000785</v>
       </c>
       <c r="B80" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12000821</v>
       </c>
       <c r="B81" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12000822</v>
       </c>
       <c r="B82" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>12000835</v>
       </c>
       <c r="B83" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12000851</v>
       </c>
       <c r="B84" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12000863</v>
       </c>
       <c r="B85" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12000891</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12000931</v>
       </c>
       <c r="B87" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12000951</v>
       </c>
       <c r="B88" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12000953</v>
       </c>
       <c r="B89" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12000991</v>
       </c>
       <c r="B90" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>12001122</v>
       </c>
       <c r="B91" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>12001173</v>
       </c>
       <c r="B92" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12001183</v>
       </c>
       <c r="B93" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>12001201</v>
       </c>
       <c r="B94" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>12001203</v>
       </c>
       <c r="B95" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>12001218</v>
       </c>
       <c r="B96" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>12001224</v>
       </c>
       <c r="B97" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>12001225</v>
       </c>
       <c r="B98" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12001226</v>
       </c>
       <c r="B99" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12001228</v>
       </c>
       <c r="B100" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12001229</v>
       </c>
       <c r="B101" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>12001230</v>
       </c>
       <c r="B102" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12001232</v>
       </c>
       <c r="B103" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>12001279</v>
       </c>
       <c r="B104" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12001282</v>
       </c>
       <c r="B105" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12001283</v>
       </c>
       <c r="B106" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12001284</v>
       </c>
       <c r="B107" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>12001294</v>
       </c>
       <c r="B108" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12001303</v>
       </c>
       <c r="B109" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>12001310</v>
       </c>
       <c r="B110" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>12001318</v>
       </c>
       <c r="B111" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12001319</v>
       </c>
       <c r="B112" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12001327</v>
       </c>
       <c r="B113" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12001337</v>
       </c>
       <c r="B114" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>12001349</v>
       </c>
       <c r="B115" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12001362</v>
       </c>
       <c r="B116" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>12001365</v>
       </c>
       <c r="B117" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12001367</v>
       </c>
       <c r="B118" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12001368</v>
       </c>
       <c r="B119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12001370</v>
       </c>
       <c r="B120" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12001376</v>
       </c>
       <c r="B121" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12001385</v>
       </c>
       <c r="B122" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12001388</v>
       </c>
       <c r="B123" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>12001396</v>
       </c>
       <c r="B124" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>12001399</v>
       </c>
       <c r="B125" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>12001401</v>
       </c>
       <c r="B126" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>12001408</v>
       </c>
       <c r="B127" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>12001433</v>
       </c>
       <c r="B128" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>12001435</v>
       </c>
       <c r="B129" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>12001436</v>
       </c>
       <c r="B130" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>12001438</v>
       </c>
       <c r="B131" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>12001441</v>
       </c>
       <c r="B132" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>12001446</v>
       </c>
       <c r="B133" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12001457</v>
       </c>
       <c r="B134" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12001477</v>
       </c>
       <c r="B135" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>12001479</v>
       </c>
       <c r="B136" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12001492</v>
       </c>
       <c r="B137" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>12001493</v>
       </c>
       <c r="B138" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12001496</v>
       </c>
       <c r="B139" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12001521</v>
       </c>
       <c r="B140" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>12001527</v>
       </c>
       <c r="B141" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13000034</v>
       </c>
       <c r="B142" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>13000035</v>
       </c>
       <c r="B143" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>13000036</v>
       </c>
       <c r="B144" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>13000037</v>
       </c>
       <c r="B145" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>13000040</v>
       </c>
       <c r="B146" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>13000041</v>
       </c>
       <c r="B147" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>13000044</v>
       </c>
       <c r="B148" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>13000045</v>
       </c>
       <c r="B149" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>13000046</v>
       </c>
       <c r="B150" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>13000049</v>
       </c>
       <c r="B151" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>13000050</v>
       </c>
       <c r="B152" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>13000051</v>
       </c>
       <c r="B153" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>13000052</v>
       </c>
       <c r="B154" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>13000054</v>
       </c>
       <c r="B155" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>13000056</v>
       </c>
       <c r="B156" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>13000065</v>
       </c>
       <c r="B157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>13000067</v>
       </c>
       <c r="B158" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>13000073</v>
       </c>
       <c r="B159" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>13000076</v>
       </c>
       <c r="B160" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>13000077</v>
       </c>
       <c r="B161" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>13000078</v>
       </c>
       <c r="B162" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>13000079</v>
       </c>
       <c r="B163" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>13000090</v>
       </c>
       <c r="B164" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>13000091</v>
       </c>
       <c r="B165" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>13000092</v>
       </c>
       <c r="B166" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>13000094</v>
       </c>
       <c r="B167" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>13000097</v>
       </c>
       <c r="B168" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>13000098</v>
       </c>
       <c r="B169" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>13000100</v>
       </c>
       <c r="B170" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>13000101</v>
       </c>
       <c r="B171" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>13000112</v>
       </c>
       <c r="B172" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>13000114</v>
       </c>
       <c r="B173" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>13000115</v>
       </c>
       <c r="B174" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>13000121</v>
       </c>
       <c r="B175" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>13000154</v>
       </c>
       <c r="B176" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>13000155</v>
       </c>
       <c r="B177" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>13000171</v>
       </c>
       <c r="B178" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>13000191</v>
       </c>
       <c r="B179" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>13000221</v>
       </c>
       <c r="B180" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>13000293</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>13000300</v>
       </c>
       <c r="B182" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>13000301</v>
       </c>
       <c r="B183" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>13000324</v>
       </c>
       <c r="B184" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>13000351</v>
       </c>
       <c r="B185" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>13000352</v>
       </c>
       <c r="B186" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>13000353</v>
       </c>
       <c r="B187" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>13000357</v>
       </c>
       <c r="B188" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13000358</v>
       </c>
       <c r="B189" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>13000359</v>
       </c>
       <c r="B190" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>13000364</v>
       </c>
       <c r="B191" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>13000391</v>
       </c>
       <c r="B192" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>13000421</v>
       </c>
       <c r="B193" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>13000484</v>
       </c>
       <c r="B194" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>13000486</v>
       </c>
       <c r="B195" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>13000489</v>
       </c>
       <c r="B196" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>13000490</v>
       </c>
       <c r="B197" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13000532</v>
       </c>
       <c r="B198" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>13000533</v>
       </c>
       <c r="B199" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>13000535</v>
       </c>
       <c r="B200" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13000541</v>
       </c>
       <c r="B201" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>13000632</v>
       </c>
       <c r="B202" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>13000633</v>
       </c>
       <c r="B203" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13000701</v>
       </c>
       <c r="B204" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13000721</v>
       </c>
       <c r="B205" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>13000731</v>
       </c>
       <c r="B206" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13000741</v>
       </c>
       <c r="B207" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>13000742</v>
       </c>
       <c r="B208" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13000751</v>
       </c>
       <c r="B209" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13000771</v>
       </c>
       <c r="B210" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>13000781</v>
       </c>
       <c r="B211" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13000791</v>
       </c>
       <c r="B212" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>13000801</v>
       </c>
       <c r="B213" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13000812</v>
       </c>
       <c r="B214" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>13000822</v>
       </c>
       <c r="B215" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>13000826</v>
       </c>
       <c r="B216" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>13000852</v>
       </c>
       <c r="B217" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>13000921</v>
       </c>
       <c r="B218" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>13000945</v>
       </c>
       <c r="B219" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>13000986</v>
       </c>
       <c r="B220" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>13000991</v>
       </c>
       <c r="B221" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>13001002</v>
       </c>
       <c r="B222" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>13001021</v>
       </c>
       <c r="B223" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>13001023</v>
       </c>
       <c r="B224" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>13001024</v>
       </c>
       <c r="B225" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>13001025</v>
       </c>
       <c r="B226" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13001027</v>
       </c>
       <c r="B227" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13001030</v>
       </c>
       <c r="B228" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13001032</v>
       </c>
       <c r="B229" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13001034</v>
       </c>
       <c r="B230" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13001035</v>
       </c>
       <c r="B231" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13001036</v>
       </c>
       <c r="B232" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>19001037</v>
       </c>
       <c r="B233" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13001038</v>
       </c>
       <c r="B234" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13001044</v>
       </c>
       <c r="B235" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13001045</v>
       </c>
       <c r="B236" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>13001049</v>
       </c>
       <c r="B237" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>13001051</v>
       </c>
       <c r="B238" t="s">
         <v>204</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
